--- a/Prelim_1/Problem1a1c1d.xlsx
+++ b/Prelim_1/Problem1a1c1d.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_MS_First_Year\02_Second_Semester\Advanced_Principles_of_Biomolecular_Engineering\Prelim1\Prelim_Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_MS_First_Year\02_Second_Semester\Advanced_Principles_of_Biomolecular_Engineering\Prelim1\Prelim_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17281D9D-E18A-4C05-AD5E-AEDCC8B491F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9887E071-A694-498B-A52C-675AAE3A99A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3F6D06C4-8F19-458B-91DC-405B2D825442}"/>
   </bookViews>
@@ -1012,29 +1012,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1c'!$C$25:$C$31</c:f>
+              <c:f>'1c'!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-7.6009024595420822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.6009024595420822</c:v>
+                  <c:v>-5.2983173665480363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.2983173665480363</c:v>
+                  <c:v>-4.4228486291941369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4228486291941369</c:v>
+                  <c:v>-2.9374633654300153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.9374633654300153</c:v>
+                  <c:v>-1.5324768712979722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5324768712979722</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1042,29 +1039,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1c'!$D$25:$D$31</c:f>
+              <c:f>'1c'!$D$26:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1267943670108247E-2</c:v>
+                  <c:v>1.2454043003803851E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2454043003803851E-2</c:v>
+                  <c:v>2.4315036340759905E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4315036340759905E-2</c:v>
+                  <c:v>3.9734327678802771E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9734327678802771E-2</c:v>
+                  <c:v>5.100227134891102E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.100227134891102E-2</c:v>
+                  <c:v>5.515361901684563E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.515361901684563E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5.515361901684563E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1109,29 +1103,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1c'!$C$25:$C$31</c:f>
+              <c:f>'1c'!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-7.6009024595420822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.6009024595420822</c:v>
+                  <c:v>-5.2983173665480363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.2983173665480363</c:v>
+                  <c:v>-4.4228486291941369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4228486291941369</c:v>
+                  <c:v>-2.9374633654300153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.9374633654300153</c:v>
+                  <c:v>-1.5324768712979722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5324768712979722</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1139,29 +1130,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1c'!$H$25:$H$31</c:f>
+              <c:f>'1c'!$H$26:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1566496869336973E-2</c:v>
+                  <c:v>1.6299106063010039E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6299106063010039E-2</c:v>
+                  <c:v>3.574395688049286E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.574395688049286E-2</c:v>
+                  <c:v>4.4519479403060544E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4519479403060544E-2</c:v>
+                  <c:v>5.2786530091153777E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2786530091153777E-2</c:v>
+                  <c:v>5.5204506437156194E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5204506437156194E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5.5866961339090825E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3052,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/$D$14</f>
+        <f t="shared" ref="F3:F9" si="0">C3/$D$14</f>
         <v>3.1550242276303088E-23</v>
       </c>
       <c r="G3" s="2">
@@ -3075,11 +3063,11 @@
         <v>26</v>
       </c>
       <c r="F4" s="2">
-        <f>C4/$D$14</f>
+        <f t="shared" si="0"/>
         <v>3.4871320410650782E-23</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G9" si="0">F4*$D$15*1/$D$16</f>
+        <f t="shared" ref="G4:G9" si="1">F4*$D$15*1/$D$16</f>
         <v>1.2454043003803853E-2</v>
       </c>
     </row>
@@ -3097,11 +3085,11 @@
         <v>44</v>
       </c>
       <c r="F5" s="2">
-        <f>C5/$D$14</f>
+        <f t="shared" si="0"/>
         <v>6.8082101754127717E-23</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4315036340759901E-2</v>
       </c>
     </row>
@@ -3119,11 +3107,11 @@
         <v>69</v>
       </c>
       <c r="F6" s="2">
-        <f>C6/$D$14</f>
+        <f t="shared" si="0"/>
         <v>1.1125611750064774E-22</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9734327678802771E-2</v>
       </c>
     </row>
@@ -3141,11 +3129,11 @@
         <v>88</v>
       </c>
       <c r="F7" s="2">
-        <f>C7/$D$14</f>
+        <f t="shared" si="0"/>
         <v>1.4280635977695082E-22</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.100227134891102E-2</v>
       </c>
     </row>
@@ -3163,11 +3151,11 @@
         <v>95</v>
       </c>
       <c r="F8" s="2">
-        <f>C8/$D$14</f>
+        <f t="shared" si="0"/>
         <v>1.5443013324716774E-22</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.515361901684563E-2</v>
       </c>
     </row>
@@ -3185,11 +3173,11 @@
         <v>94</v>
       </c>
       <c r="F9" s="2">
-        <f>C9/$D$14</f>
+        <f t="shared" si="0"/>
         <v>1.5443013324716774E-22</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.515361901684563E-2</v>
       </c>
     </row>
@@ -3276,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB80BA3-9CFC-4C0A-A677-730D40796FFB}">
   <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
